--- a/data/trans_camb/P2C_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13.70561154419775</v>
+        <v>13.70561154419776</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>1.869308296739702</v>
+        <v>1.863352446229541</v>
       </c>
     </row>
     <row r="6">
@@ -700,17 +700,17 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>41.26249450980029</v>
+        <v>38.59259775924389</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>15.53039055762651</v>
+        <v>18.56416059763056</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>21.87695180340353</v>
+        <v>21.07047159535823</v>
       </c>
     </row>
     <row r="7">
@@ -812,7 +812,7 @@
         <v>-0.5176651168943532</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.29356529519015</v>
+        <v>2.293565295190149</v>
       </c>
     </row>
     <row r="11">
@@ -823,31 +823,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.892688431992078</v>
+        <v>-1.931191753522339</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.282481086290426</v>
+        <v>-2.337697200508936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.392980158676509</v>
+        <v>-1.394616463392757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8322956110223598</v>
+        <v>-0.8265282098565353</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.923901839277744</v>
+        <v>-2.158078526930615</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7854647266534935</v>
+        <v>-0.8060586939346838</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7413209506123066</v>
+        <v>-0.8362000340873251</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.463161509401343</v>
+        <v>-1.554112633849374</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4254310772322085</v>
+        <v>-0.5935467616047247</v>
       </c>
     </row>
     <row r="12">
@@ -858,31 +858,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.441351522324283</v>
+        <v>1.237368921055662</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.774452622047763</v>
+        <v>0.784105011463118</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.41747265733609</v>
+        <v>24.44709210441515</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.885150572050407</v>
+        <v>2.124643166955728</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.923476721358869</v>
+        <v>5.287421633730955</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.253811089091555</v>
+        <v>1.307834351028583</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1583901830592175</v>
+        <v>0.09719669231449361</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.682203238900126</v>
+        <v>10.41347036930329</v>
       </c>
     </row>
     <row r="13">
@@ -899,7 +899,7 @@
         <v>-0.5524923208830722</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>5.639904829300899</v>
+        <v>5.639904829300898</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5712870687324267</v>
@@ -917,7 +917,7 @@
         <v>-0.7592010257208099</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>3.363713466173884</v>
+        <v>3.363713466173883</v>
       </c>
     </row>
     <row r="14">
@@ -934,7 +934,7 @@
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.7406279840980637</v>
+        <v>-0.8196733884028704</v>
       </c>
       <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="inlineStr"/>
@@ -953,7 +953,7 @@
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>5.529628372387755</v>
+        <v>7.922993688044301</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="inlineStr"/>
@@ -1005,31 +1005,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.001180759326679</v>
+        <v>-1.006359926023808</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.244687503921061</v>
+        <v>-1.293584979698564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.003580329148055</v>
+        <v>-1.084964585375219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.934103237657358</v>
+        <v>-1.784775451767001</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.408945870506006</v>
+        <v>-1.421229125147267</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.976674718256601</v>
+        <v>-2.042768683477507</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9595649548903527</v>
+        <v>-1.002369938861273</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9451957537272876</v>
+        <v>-0.9089348277514062</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.264237884380844</v>
+        <v>-1.194038370028976</v>
       </c>
     </row>
     <row r="18">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.999432320989776</v>
+        <v>1.959221823859266</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.497059054225001</v>
+        <v>1.440596112979293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.821199843621096</v>
+        <v>3.935203305987083</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.057919265337302</v>
+        <v>1.083280054420765</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.775077591605699</v>
+        <v>1.723283872791065</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.548559874752538</v>
+        <v>1.733621914770578</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.018313021907506</v>
+        <v>1.130401099803728</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.144888165171965</v>
+        <v>1.165890887637496</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.677219029019821</v>
+        <v>1.532512178198542</v>
       </c>
     </row>
     <row r="19">
@@ -1110,27 +1110,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8147195393648025</v>
-      </c>
-      <c r="D20" s="6" t="inlineStr"/>
+        <v>-0.81763869410358</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.7605540551526577</v>
+        <v>-0.7836889355572807</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6628312678571887</v>
+        <v>-0.6174933899893723</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5710801857815172</v>
+        <v>-0.5674825088675447</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5729698608984357</v>
+        <v>-0.5546747147644745</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.807680963082761</v>
+        <v>-0.7655136176473937</v>
       </c>
     </row>
     <row r="21">
@@ -1141,27 +1143,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.627318357545196</v>
-      </c>
-      <c r="D21" s="6" t="inlineStr"/>
+        <v>4.974874867040318</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>5.807180236477901</v>
+      </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>1.342224421589262</v>
+        <v>1.495393938559708</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.130424054291499</v>
+        <v>1.956834776224033</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.355002066540652</v>
+        <v>1.979631110767996</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.323920922882384</v>
+        <v>1.661397651433593</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.468419754344553</v>
+        <v>1.495507125146875</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.058297518379826</v>
+        <v>1.950206587342352</v>
       </c>
     </row>
     <row r="22">
@@ -1182,7 +1186,7 @@
         <v>1.865758926671463</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.759314839106752</v>
+        <v>8.759314839106754</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.2439656049548341</v>
@@ -1191,7 +1195,7 @@
         <v>0.2027462930775662</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.454748145825254</v>
+        <v>6.454748145825253</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.3928994224146142</v>
@@ -1200,7 +1204,7 @@
         <v>1.090704402944232</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.620920543922661</v>
+        <v>7.620920543922663</v>
       </c>
     </row>
     <row r="23">
@@ -1211,31 +1215,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3924729445752882</v>
+        <v>-0.6252291991787764</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3500244867046419</v>
+        <v>0.3191015840415002</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.807552361909523</v>
+        <v>4.073415522968079</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.241763722788274</v>
+        <v>-2.502789507820863</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.302664720744367</v>
+        <v>-2.288196925968961</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.720370093640581</v>
+        <v>2.626626791406651</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8360864970832416</v>
+        <v>-1.032691942476006</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.401447125433203</v>
+        <v>-0.2061225459373995</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.560783681760292</v>
+        <v>4.598581631803196</v>
       </c>
     </row>
     <row r="24">
@@ -1246,31 +1250,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.896509361717335</v>
+        <v>1.711064291084938</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.831658967188431</v>
+        <v>3.721546464116357</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.79880263017911</v>
+        <v>16.64781675011925</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.079321438380705</v>
+        <v>1.999392375514528</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.977746406555188</v>
+        <v>1.943227034227208</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.28616301238275</v>
+        <v>10.41004672626962</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.440650051640521</v>
+        <v>1.36908457268374</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.259603676493202</v>
+        <v>2.37358818948434</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.65312175384791</v>
+        <v>11.84500487417112</v>
       </c>
     </row>
     <row r="25">
@@ -1287,7 +1291,7 @@
         <v>6.026528664152519</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>28.29318472048705</v>
+        <v>28.29318472048706</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2123641836630479</v>
@@ -1296,7 +1300,7 @@
         <v>0.1764841032738916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>5.618649895310131</v>
+        <v>5.61864989531013</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.5711703409515282</v>
@@ -1305,7 +1309,7 @@
         <v>1.58559155388521</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>11.07877369400506</v>
+        <v>11.07877369400507</v>
       </c>
     </row>
     <row r="26">
@@ -1318,19 +1322,19 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
-      <c r="F26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>0.3347232116867564</v>
-      </c>
-      <c r="I26" s="6" t="inlineStr"/>
+        <v>0.09843538437935744</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>-0.8254385270860212</v>
+      </c>
       <c r="J26" s="6" t="n">
-        <v>-0.559393793428775</v>
+        <v>-0.4529306940522859</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2.194987738597442</v>
+        <v>2.354988216284846</v>
       </c>
     </row>
     <row r="27">
@@ -1346,12 +1350,14 @@
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
-      <c r="I27" s="6" t="inlineStr"/>
+      <c r="I27" s="6" t="n">
+        <v>7.089436684700441</v>
+      </c>
       <c r="J27" s="6" t="n">
-        <v>12.5571534967583</v>
+        <v>12.31174583010836</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>50.32146504074753</v>
+        <v>49.96333985318581</v>
       </c>
     </row>
     <row r="28">
@@ -1405,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.698788939463528</v>
+        <v>9.89179344543636</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2958217117576588</v>
+        <v>-0.08646659133612236</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.435886194359396</v>
+        <v>-1.845085380866617</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.412757969335935</v>
+        <v>4.366854616106921</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06915261122865733</v>
+        <v>0.06885778700915819</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.8028330620237389</v>
+        <v>-0.6110414321327741</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.650387799173858</v>
+        <v>8.07497461157441</v>
       </c>
     </row>
     <row r="30">
@@ -1435,28 +1441,28 @@
       </c>
       <c r="C30" s="5" t="inlineStr"/>
       <c r="D30" s="5" t="n">
-        <v>5.64882811359534</v>
+        <v>5.955705728293202</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27.27879391678567</v>
+        <v>28.60750577915157</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.648759255847245</v>
+        <v>5.280532437051657</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9520839443780272</v>
+        <v>0.9532243759473144</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>15.55284373927806</v>
+        <v>15.05177581599698</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.35401387697899</v>
+        <v>3.458209922356769</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.888012160579556</v>
+        <v>2.13687102614455</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>18.12289336834652</v>
+        <v>18.4671130445087</v>
       </c>
     </row>
     <row r="31">
@@ -1566,7 +1572,7 @@
         <v>0.2958176126651647</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>22.90752331652191</v>
+        <v>22.9075233165219</v>
       </c>
     </row>
     <row r="35">
@@ -1577,31 +1583,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.486085564495159</v>
+        <v>-1.467404798926696</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.158991259249556</v>
+        <v>-1.957252611842616</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12.9921665954617</v>
+        <v>13.45771584540477</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.9289073868614189</v>
+        <v>-0.9309523927712277</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.04574740415630018</v>
+        <v>-0.2894370730711546</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>16.63040523893502</v>
+        <v>16.46669815314335</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.6930829315923711</v>
+        <v>-0.9962196891480313</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.5283287120330432</v>
+        <v>-0.5725957557292971</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>17.36870636548914</v>
+        <v>17.6132007699073</v>
       </c>
     </row>
     <row r="36">
@@ -1612,31 +1618,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.020215593750034</v>
+        <v>1.291603015683252</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.3180088596169248</v>
+        <v>0.5791972144776513</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>33.12202872195859</v>
+        <v>33.3888477056483</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.5648508110225933</v>
+        <v>0.5606072340049413</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.42795720780286</v>
+        <v>2.410970691751674</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>31.59247733821279</v>
+        <v>31.34512072813482</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.753837444637057</v>
+        <v>0.6128344954655132</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.271063164306633</v>
+        <v>1.277677610212806</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>28.7501279760833</v>
+        <v>29.46096465530109</v>
       </c>
     </row>
     <row r="37">
@@ -1662,7 +1668,7 @@
         <v>2.916873695944981</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>76.80326166007751</v>
+        <v>76.80326166007752</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.0686153754502813</v>
@@ -1671,7 +1677,7 @@
         <v>0.5956806615665275</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>46.12831711099575</v>
+        <v>46.12831711099573</v>
       </c>
     </row>
     <row r="38">
@@ -1684,17 +1690,15 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>6.489499115285222</v>
+        <v>6.167905092345494</v>
       </c>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="inlineStr"/>
-      <c r="J38" s="6" t="n">
-        <v>-0.7828546434868917</v>
-      </c>
+      <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>15.74850648275763</v>
+        <v>15.65693892377217</v>
       </c>
     </row>
     <row r="39">
@@ -1711,13 +1715,9 @@
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="inlineStr"/>
-      <c r="J39" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+      <c r="J39" s="6" t="inlineStr"/>
       <c r="K39" s="6" t="n">
-        <v>162.5900810906438</v>
+        <v>169.1276345719437</v>
       </c>
     </row>
     <row r="40">
@@ -1747,7 +1747,7 @@
         <v>0.6507078792081856</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>45.99493469186401</v>
+        <v>45.99493469186402</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.6698828414540509</v>
@@ -1756,7 +1756,7 @@
         <v>0.4980568042191411</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>45.85708380332703</v>
+        <v>45.85708380332704</v>
       </c>
     </row>
     <row r="41">
@@ -1767,31 +1767,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.7897107885541038</v>
+        <v>-0.7935423192098844</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.8542796905313853</v>
+        <v>-0.8788919611170654</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>36.3991454176979</v>
+        <v>37.51944485474411</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.1309757180440641</v>
+        <v>-0.3678463539859497</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.352044223869491</v>
+        <v>-0.3569166500221165</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>40.92978001882629</v>
+        <v>40.19620937472118</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.2487690730250939</v>
+        <v>-0.1787773732332309</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.3565633941425242</v>
+        <v>-0.3266647780133635</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>41.66865228276867</v>
+        <v>41.3472876240101</v>
       </c>
     </row>
     <row r="42">
@@ -1802,31 +1802,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.255995625617693</v>
+        <v>1.245375833522135</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.31300273217119</v>
+        <v>1.301550593020101</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>53.57062455962414</v>
+        <v>53.92154128295079</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.808409939234224</v>
+        <v>2.54973124191934</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.353971341815225</v>
+        <v>2.302194296736375</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>50.93065229073728</v>
+        <v>50.67287950158194</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.599788684710611</v>
+        <v>1.719976364146934</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.473818391226322</v>
+        <v>1.510999513811156</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>50.35270801236486</v>
+        <v>50.24833230410847</v>
       </c>
     </row>
     <row r="43">
@@ -1877,10 +1877,12 @@
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
-      <c r="I44" s="6" t="inlineStr"/>
+      <c r="I44" s="6" t="n">
+        <v>-0.7590002659422371</v>
+      </c>
       <c r="J44" s="6" t="inlineStr"/>
       <c r="K44" s="6" t="n">
-        <v>39.43880399932481</v>
+        <v>35.60694776160334</v>
       </c>
     </row>
     <row r="45">
@@ -1936,7 +1938,7 @@
         <v>0.2655326407610934</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>15.33985409794125</v>
+        <v>15.33985409794124</v>
       </c>
     </row>
     <row r="47">
@@ -1947,31 +1949,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.2940955000998414</v>
+        <v>-0.3957363565955724</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.2403341523665647</v>
+        <v>-0.2502145144368265</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>11.79013210994644</v>
+        <v>11.49595392828495</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.1597510481069401</v>
+        <v>-0.1919303084722246</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.3941683617170077</v>
+        <v>-0.4146097741652835</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>13.77970902552813</v>
+        <v>13.7763144694852</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.1334391123500884</v>
+        <v>-0.1099827042981636</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.1415149070217842</v>
+        <v>-0.1396332263990549</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>13.67141861821443</v>
+        <v>13.67130618814499</v>
       </c>
     </row>
     <row r="48">
@@ -1982,31 +1984,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.8140456167573603</v>
+        <v>0.8029532358798527</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.9295234129445801</v>
+        <v>0.9381404531718233</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>17.9616026880671</v>
+        <v>17.75629591237051</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.028319489550226</v>
+        <v>0.9943772076390809</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.7816628469701082</v>
+        <v>0.8132942565230182</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>17.94547116453796</v>
+        <v>17.94573305447521</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.6868398095180601</v>
+        <v>0.711766793572557</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.6727667478766217</v>
+        <v>0.6409710855633979</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>17.09972031540265</v>
+        <v>17.32113989962305</v>
       </c>
     </row>
     <row r="49">
@@ -2041,7 +2043,7 @@
         <v>0.3885603826697154</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>22.4471822421125</v>
+        <v>22.44718224211249</v>
       </c>
     </row>
     <row r="50">
@@ -2052,31 +2054,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4034350377622306</v>
+        <v>-0.4749156160489939</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3084300474835581</v>
+        <v>-0.3516270496570418</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>12.57692759001911</v>
+        <v>12.21774238318888</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.187099478723643</v>
+        <v>-0.2220925025165404</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3865845494316672</v>
+        <v>-0.4030398548717902</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>12.35474134591449</v>
+        <v>11.90322831610531</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1891891788488116</v>
+        <v>-0.1479487047903801</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1852684808076828</v>
+        <v>-0.1852833884648137</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>14.50472279324404</v>
+        <v>14.59020876968003</v>
       </c>
     </row>
     <row r="51">
@@ -2087,31 +2089,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.456846448427073</v>
+        <v>2.483456835320843</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.782569078111675</v>
+        <v>3.212724658143535</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>58.24348485576279</v>
+        <v>59.51754765288536</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>2.247898512278176</v>
+        <v>2.075988216556229</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.67045604994945</v>
+        <v>1.525190611865818</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>37.00596365923548</v>
+        <v>38.81488260345774</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.443669397988397</v>
+        <v>1.454653466230185</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.427745357234044</v>
+        <v>1.317754478594245</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>34.72941441598212</v>
+        <v>34.19912208938256</v>
       </c>
     </row>
     <row r="52">
